--- a/Data_frame/balancos_definitivos/BBTG13.xlsx
+++ b/Data_frame/balancos_definitivos/BBTG13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY79"/>
+  <dimension ref="A1:AY80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,7 +1007,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Disponibilidades</t>
+          <t>Caixa e Equivalentes de Caixa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1164,7 +1164,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aplicações Interfinanceiras de Liquidez</t>
+          <t>Aplicações Financeiras</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1321,7 +1321,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Títulos e Valores Mobiliários</t>
+          <t>Contas a Receber</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1478,7 +1478,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Relações Interfinanceiras</t>
+          <t>Estoques</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1635,7 +1635,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Relações Interdependências</t>
+          <t>Ativos Biológicos</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1792,7 +1792,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Operações de Crédito</t>
+          <t>Tributos a Recuperar</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1949,7 +1949,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Operações de Arrendamento Mercantil</t>
+          <t>Despesas Antecipadas</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2106,7 +2106,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Outros Créditos</t>
+          <t>Outros Ativos Circulantes</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2263,7 +2263,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Outros Valores e Bens</t>
+          <t>Ativo Realizável a Longo Prazo</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2324,61 +2324,61 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>722526.976</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>607715.968</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>323295.008</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>249758</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>159698</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>57158</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>31454</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>10428</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>3799</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>2853</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1161</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1498</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
@@ -2387,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1636</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="AV12" t="n">
-        <v>814</v>
+        <v>9</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ativo Realizável a Longo Prazo</t>
+          <t>Aplicações Financeiras Avaliadas a Valor Justo</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2481,52 +2481,52 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>722526.976</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>607715.968</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>323295.008</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>249758</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>159698</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>57158</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>31454</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>10428</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>3799</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2853</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -2556,13 +2556,13 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
@@ -2577,7 +2577,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aplicações Interfinanceiras de Liquidez</t>
+          <t>Aplicações Financeiras Avaliadas ao Custo Amortizado</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2638,43 +2638,43 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>722526.976</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>607715.968</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>323295.008</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>249758</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>159698</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>57158</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>31454</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>10428</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>3799</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Títulos e Valores Mobiliários</t>
+          <t>Contas a Receber</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2795,43 +2795,43 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>722526.976</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>607715.968</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>323295.008</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>249758</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>159698</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>57158</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>31454</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>10428</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>3799</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Relações Interfinanceiras</t>
+          <t>Estoques</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3048,7 +3048,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Relações Interdependências</t>
+          <t>Ativos Biológicos</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3205,7 +3205,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Operações de Crédito</t>
+          <t>Tributos Diferidos</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3362,7 +3362,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Operações de Arrendamento Mercantil</t>
+          <t>Despesas Antecipadas</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3519,7 +3519,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Outros Créditos</t>
+          <t>Créditos com Partes Relacionadas</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3622,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>2849</v>
       </c>
       <c r="AK20" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Outros Valores e Bens</t>
+          <t>Outros Ativos Não Circulantes</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3779,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2849</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ativo Permanente</t>
+          <t>Investimentos</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3990,7 +3990,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Investimentos</t>
+          <t>Imobilizado</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4147,7 +4147,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Imobilizado de Uso</t>
+          <t>Intangível</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4304,7 +4304,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Imobilizado de Arrendamento</t>
+          <t>Diferido</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4461,11 +4461,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intangível</t>
+          <t>Passivo Total</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -4513,97 +4513,97 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>600587.008</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>575664</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>759958.976</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>722633.9840000001</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>607715.968</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>326840.992</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>249774</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>159698</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>57158</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>31454</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>10428</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>3799</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>2853</v>
       </c>
       <c r="AK26" t="n">
         <v>0</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1167</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1506</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="AO26" t="n">
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>1644</v>
       </c>
       <c r="AR26" t="n">
-        <v>0</v>
+        <v>2227</v>
       </c>
       <c r="AS26" t="n">
         <v>0</v>
       </c>
       <c r="AT26" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="AU26" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="AV26" t="n">
-        <v>0</v>
+        <v>823</v>
       </c>
       <c r="AW26" t="n">
         <v>0</v>
@@ -4618,7 +4618,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Diferido</t>
+          <t>Passivo Circulante</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>3546</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -4721,19 +4721,19 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>2849</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1498</v>
       </c>
       <c r="AN27" t="n">
         <v>0</v>
@@ -4742,25 +4742,25 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>1633</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>2217</v>
       </c>
       <c r="AS27" t="n">
         <v>0</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="AU27" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="AV27" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="AW27" t="n">
         <v>0</v>
@@ -4775,11 +4775,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Passivo Total</t>
+          <t>Obrigações Sociais e Trabalhistas</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -4827,97 +4827,97 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>600587.008</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>575664</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>759958.976</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>722633.9840000001</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>607715.968</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>326840.992</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>249774</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>159698</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>57158</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>31454</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>10428</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>3799</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>2853</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
         <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>1167</v>
+        <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>1506</v>
+        <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>2181</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="n">
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>973</v>
+        <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1644</v>
+        <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>2227</v>
+        <v>0</v>
       </c>
       <c r="AS28" t="n">
         <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="AU28" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="AW28" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Passivo Circulante</t>
+          <t>Fornecedores</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>3546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -5035,19 +5035,19 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2849</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1161</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>1498</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
         <v>0</v>
@@ -5056,25 +5056,25 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1633</v>
+        <v>0</v>
       </c>
       <c r="AR29" t="n">
-        <v>2217</v>
+        <v>0</v>
       </c>
       <c r="AS29" t="n">
         <v>0</v>
       </c>
       <c r="AT29" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="AU29" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="AV29" t="n">
-        <v>815</v>
+        <v>0</v>
       </c>
       <c r="AW29" t="n">
         <v>0</v>
@@ -5089,7 +5089,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Depósitos</t>
+          <t>Obrigações Fiscais</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -5246,7 +5246,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Captações no Mercado Aberto</t>
+          <t>Empréstimos e Financiamentos</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5403,7 +5403,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Recursos de Aceites e Emissão de Títulos</t>
+          <t>Passivos com Partes Relacionadas</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -5560,7 +5560,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Relações Interfinanceiras</t>
+          <t>Dividendos e JCP a Pagar</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5717,7 +5717,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Relações Interdependências</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>3546</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>2849</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
@@ -5841,25 +5841,25 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>1633</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>2217</v>
       </c>
       <c r="AS34" t="n">
         <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="AU34" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="AV34" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="AW34" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Obrigações por Empréstimos</t>
+          <t>Provisões</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -6031,7 +6031,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Obrigações por Repasse do País</t>
+          <t>Passivos sobre Ativos Não-Correntes a Venda e Descontinuados</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -6188,7 +6188,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Obrigações por Repasse do Exterior</t>
+          <t>Passivo Não Circulante</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -6345,7 +6345,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Outras Obrigações</t>
+          <t>Empréstimos e Financiamentos</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>3546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -6448,10 +6448,10 @@
         <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>2849</v>
+        <v>0</v>
       </c>
       <c r="AK38" t="n">
         <v>0</v>
@@ -6469,25 +6469,25 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1633</v>
+        <v>0</v>
       </c>
       <c r="AR38" t="n">
-        <v>2217</v>
+        <v>0</v>
       </c>
       <c r="AS38" t="n">
         <v>0</v>
       </c>
       <c r="AT38" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="AU38" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="AV38" t="n">
-        <v>815</v>
+        <v>0</v>
       </c>
       <c r="AW38" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Passivo Exigível a Longo Prazo</t>
+          <t>Passivos com Partes Relacionadas</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -6659,7 +6659,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Depósitos</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -6816,7 +6816,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Captações no Mercado Aberto</t>
+          <t>Tributos Diferidos</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -6973,7 +6973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Recursos de Aceites e Emissão de Títulos</t>
+          <t>Adiantamento para Futuro Aumento Capital</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -7130,7 +7130,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Relações Interfinanceiras</t>
+          <t>Provisões</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -7287,7 +7287,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Relações Interdependências</t>
+          <t>Passivos sobre Ativos Não-Correntes a Venda e Descontinuados</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -7444,7 +7444,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Obrigações por Empréstimos</t>
+          <t>Lucros e Receitas a Apropriar</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -7601,7 +7601,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Obrigações por Repasse do País</t>
+          <t>Participação dos Acionistas Não Controladores</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -7758,11 +7758,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Obrigações por Repasse do Exterior</t>
+          <t>Patrimônio Líquido</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -7810,52 +7810,52 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>600587.008</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>575664</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>759958.976</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>722633.9840000001</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>607715.968</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>323295.008</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>249774</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>159698</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>57158</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>31454</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>10428</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>3799</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH47" t="n">
         <v>0</v>
@@ -7864,43 +7864,43 @@
         <v>0</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM47" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN47" t="n">
         <v>0</v>
       </c>
       <c r="AO47" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP47" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR47" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS47" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT47" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AU47" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV47" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW47" t="n">
         <v>9</v>
@@ -7915,7 +7915,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Outras Obrigações</t>
+          <t>Capital Social Realizado</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -7967,61 +7967,61 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1328880</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1364428.032</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1488861.952</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AK48" t="n">
         <v>0</v>
@@ -8039,25 +8039,25 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AR48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AS48" t="n">
         <v>0</v>
       </c>
       <c r="AT48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AU48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AV48" t="n">
-        <v>0</v>
+        <v>1504802.048</v>
       </c>
       <c r="AW48" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Resultados de Exercícios Futuros</t>
+          <t>Reservas de Capital</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -8124,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>-32206</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>-37627</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -8229,7 +8229,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Part. de Acionistas Não Controladores</t>
+          <t>Reservas de Reavaliação</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -8386,11 +8386,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Patrimônio Líquido</t>
+          <t>Reservas de Lucros</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -8438,52 +8438,52 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>600587.008</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>575664</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>759958.976</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>722633.9840000001</v>
+        <v>-17991</v>
       </c>
       <c r="V51" t="n">
-        <v>607715.968</v>
+        <v>-43198</v>
       </c>
       <c r="W51" t="n">
-        <v>323295.008</v>
+        <v>-2954</v>
       </c>
       <c r="X51" t="n">
-        <v>249774</v>
+        <v>-2954</v>
       </c>
       <c r="Y51" t="n">
-        <v>159698</v>
+        <v>-2954</v>
       </c>
       <c r="Z51" t="n">
-        <v>57158</v>
+        <v>-2954</v>
       </c>
       <c r="AA51" t="n">
-        <v>31454</v>
+        <v>-2954</v>
       </c>
       <c r="AB51" t="n">
-        <v>10428</v>
+        <v>-2954</v>
       </c>
       <c r="AC51" t="n">
-        <v>3799</v>
+        <v>-2954</v>
       </c>
       <c r="AD51" t="n">
-        <v>1182</v>
+        <v>-2954</v>
       </c>
       <c r="AE51" t="n">
-        <v>150</v>
+        <v>-2954</v>
       </c>
       <c r="AF51" t="n">
-        <v>46</v>
+        <v>-2954</v>
       </c>
       <c r="AG51" t="n">
-        <v>26</v>
+        <v>-2954</v>
       </c>
       <c r="AH51" t="n">
         <v>0</v>
@@ -8492,43 +8492,43 @@
         <v>0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM51" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AN51" t="n">
         <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ51" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR51" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT51" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AU51" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AV51" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW51" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Capital Social Realizado</t>
+          <t>Lucros/Prejuízos Acumulados</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -8595,70 +8595,70 @@
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>1328880</v>
+        <v>557505.9840000001</v>
       </c>
       <c r="S52" t="n">
-        <v>1364428.032</v>
+        <v>489836.992</v>
       </c>
       <c r="T52" t="n">
-        <v>1488861.952</v>
+        <v>417756.992</v>
       </c>
       <c r="U52" t="n">
-        <v>1504802.048</v>
+        <v>418648.992</v>
       </c>
       <c r="V52" t="n">
-        <v>1504802.048</v>
+        <v>396905.984</v>
       </c>
       <c r="W52" t="n">
-        <v>1504802.048</v>
+        <v>421727.008</v>
       </c>
       <c r="X52" t="n">
-        <v>1504802.048</v>
+        <v>406928.992</v>
       </c>
       <c r="Y52" t="n">
-        <v>1504802.048</v>
+        <v>417388</v>
       </c>
       <c r="Z52" t="n">
-        <v>1504802.048</v>
+        <v>418944.992</v>
       </c>
       <c r="AA52" t="n">
-        <v>1504802.048</v>
+        <v>425080</v>
       </c>
       <c r="AB52" t="n">
-        <v>1504802.048</v>
+        <v>425033.984</v>
       </c>
       <c r="AC52" t="n">
-        <v>1504802.048</v>
+        <v>424444.992</v>
       </c>
       <c r="AD52" t="n">
-        <v>1504802.048</v>
+        <v>424055.008</v>
       </c>
       <c r="AE52" t="n">
-        <v>1504802.048</v>
+        <v>424140</v>
       </c>
       <c r="AF52" t="n">
-        <v>1504802.048</v>
+        <v>424137.984</v>
       </c>
       <c r="AG52" t="n">
-        <v>1504802.048</v>
+        <v>424137.984</v>
       </c>
       <c r="AH52" t="n">
-        <v>1504802.048</v>
+        <v>424142.016</v>
       </c>
       <c r="AI52" t="n">
-        <v>1504802.048</v>
+        <v>424142.016</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1504802.048</v>
+        <v>424140.992</v>
       </c>
       <c r="AK52" t="n">
         <v>0</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>424143.008</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>424143.008</v>
       </c>
       <c r="AN52" t="n">
         <v>0</v>
@@ -8667,25 +8667,25 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1504802.048</v>
+        <v>424136.992</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1504802.048</v>
+        <v>424136.992</v>
       </c>
       <c r="AR52" t="n">
-        <v>1504802.048</v>
+        <v>424136.992</v>
       </c>
       <c r="AS52" t="n">
         <v>0</v>
       </c>
       <c r="AT52" t="n">
-        <v>1504802.048</v>
+        <v>424136</v>
       </c>
       <c r="AU52" t="n">
-        <v>1504802.048</v>
+        <v>424136</v>
       </c>
       <c r="AV52" t="n">
-        <v>1504802.048</v>
+        <v>424134.016</v>
       </c>
       <c r="AW52" t="n">
         <v>0</v>
@@ -8700,7 +8700,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Reservas de Capital</t>
+          <t>Ajustes de Avaliação Patrimonial</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -8752,70 +8752,70 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>-32206</v>
+        <v>-1253592.96</v>
       </c>
       <c r="S53" t="n">
-        <v>-37627</v>
+        <v>-1240973.952</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>-1146659.968</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>-1182825.984</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>-1250793.984</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>-1600280.064</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>-1659003.008</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>-1759538.048</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>-1863634.944</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>-1895474.048</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>-1916454.016</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>-1922493.952</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>-1924721.024</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>-1925837.952</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>-1925939.968</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>-1925959.936</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>-1928944</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>-1928944</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0</v>
+        <v>-1928939.008</v>
       </c>
       <c r="AK53" t="n">
         <v>0</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>-1928939.008</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>-1928936.96</v>
       </c>
       <c r="AN53" t="n">
         <v>0</v>
@@ -8824,25 +8824,25 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>0</v>
+        <v>-1928928</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0</v>
+        <v>-1928928</v>
       </c>
       <c r="AR53" t="n">
-        <v>0</v>
+        <v>-1928929.024</v>
       </c>
       <c r="AS53" t="n">
         <v>0</v>
       </c>
       <c r="AT53" t="n">
-        <v>0</v>
+        <v>-1928929.024</v>
       </c>
       <c r="AU53" t="n">
-        <v>0</v>
+        <v>-1928929.024</v>
       </c>
       <c r="AV53" t="n">
-        <v>0</v>
+        <v>-1928928</v>
       </c>
       <c r="AW53" t="n">
         <v>0</v>
@@ -8857,7 +8857,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Reservas de Reavaliação</t>
+          <t>Ajustes Acumulados de Conversão</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -9014,7 +9014,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Reservas de Lucro</t>
+          <t>Outros Resultados Abrangentes</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -9075,43 +9075,43 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>-17991</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>-43198</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>-2954</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>-2954</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>-2954</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>-2954</v>
+        <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>-2954</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>-2954</v>
+        <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>-2954</v>
+        <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>-2954</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>-2954</v>
+        <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>-2954</v>
+        <v>0</v>
       </c>
       <c r="AG55" t="n">
-        <v>-2954</v>
+        <v>0</v>
       </c>
       <c r="AH55" t="n">
         <v>0</v>
@@ -9171,7 +9171,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Ajustes de Avaliação Patrimonial</t>
+          <t>Adiantamento para Futuro Aumento Capital</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -9223,70 +9223,70 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>557505.9840000001</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>489836.992</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>417756.992</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>418648.992</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>396905.984</v>
+        <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>421727.008</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>406928.992</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>417388</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>418944.992</v>
+        <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>425080</v>
+        <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>425033.984</v>
+        <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>424444.992</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>424055.008</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>424140</v>
+        <v>0</v>
       </c>
       <c r="AF56" t="n">
-        <v>424137.984</v>
+        <v>0</v>
       </c>
       <c r="AG56" t="n">
-        <v>424137.984</v>
+        <v>0</v>
       </c>
       <c r="AH56" t="n">
-        <v>424142.016</v>
+        <v>0</v>
       </c>
       <c r="AI56" t="n">
-        <v>424142.016</v>
+        <v>0</v>
       </c>
       <c r="AJ56" t="n">
-        <v>424140.992</v>
+        <v>0</v>
       </c>
       <c r="AK56" t="n">
         <v>0</v>
       </c>
       <c r="AL56" t="n">
-        <v>424143.008</v>
+        <v>0</v>
       </c>
       <c r="AM56" t="n">
-        <v>424143.008</v>
+        <v>0</v>
       </c>
       <c r="AN56" t="n">
         <v>0</v>
@@ -9295,25 +9295,25 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>424136.992</v>
+        <v>0</v>
       </c>
       <c r="AQ56" t="n">
-        <v>424136.992</v>
+        <v>0</v>
       </c>
       <c r="AR56" t="n">
-        <v>424136.992</v>
+        <v>0</v>
       </c>
       <c r="AS56" t="n">
         <v>0</v>
       </c>
       <c r="AT56" t="n">
-        <v>424136</v>
+        <v>0</v>
       </c>
       <c r="AU56" t="n">
-        <v>424136</v>
+        <v>0</v>
       </c>
       <c r="AV56" t="n">
-        <v>424134.016</v>
+        <v>0</v>
       </c>
       <c r="AW56" t="n">
         <v>0</v>
@@ -9328,122 +9328,90 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Lucros/Prejuízos Acumulados</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
+          <t>Receita Bruta de Vendas e/ou Serviços</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
-        <v>-1253592.96</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>-1240973.952</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>-1146659.968</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>-1182825.984</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>-1250793.984</v>
+        <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>-1600280.064</v>
+        <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>-1659003.008</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>-1759538.048</v>
+        <v>0</v>
       </c>
       <c r="Z57" t="n">
-        <v>-1863634.944</v>
+        <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>-1895474.048</v>
+        <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>-1916454.016</v>
+        <v>0</v>
       </c>
       <c r="AC57" t="n">
-        <v>-1922493.952</v>
+        <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>-1924721.024</v>
+        <v>0</v>
       </c>
       <c r="AE57" t="n">
-        <v>-1925837.952</v>
+        <v>0</v>
       </c>
       <c r="AF57" t="n">
-        <v>-1925939.968</v>
+        <v>0</v>
       </c>
       <c r="AG57" t="n">
-        <v>-1925959.936</v>
+        <v>0</v>
       </c>
       <c r="AH57" t="n">
-        <v>-1928944</v>
+        <v>0</v>
       </c>
       <c r="AI57" t="n">
-        <v>-1928944</v>
+        <v>0</v>
       </c>
       <c r="AJ57" t="n">
-        <v>-1928939.008</v>
+        <v>0</v>
       </c>
       <c r="AK57" t="n">
         <v>0</v>
       </c>
       <c r="AL57" t="n">
-        <v>-1928939.008</v>
+        <v>0</v>
       </c>
       <c r="AM57" t="n">
-        <v>-1928936.96</v>
+        <v>0</v>
       </c>
       <c r="AN57" t="n">
         <v>0</v>
@@ -9452,25 +9420,25 @@
         <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>-1928928</v>
+        <v>0</v>
       </c>
       <c r="AQ57" t="n">
-        <v>-1928928</v>
+        <v>0</v>
       </c>
       <c r="AR57" t="n">
-        <v>-1928929.024</v>
+        <v>0</v>
       </c>
       <c r="AS57" t="n">
         <v>0</v>
       </c>
       <c r="AT57" t="n">
-        <v>-1928929.024</v>
+        <v>0</v>
       </c>
       <c r="AU57" t="n">
-        <v>-1928929.024</v>
+        <v>0</v>
       </c>
       <c r="AV57" t="n">
-        <v>-1928928</v>
+        <v>0</v>
       </c>
       <c r="AW57" t="n">
         <v>0</v>
@@ -9483,7 +9451,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Receitas da Intermediação Financeira</t>
+          <t>Deduções da Receita Bruta</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -9606,7 +9574,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Despesas da Intermediação Financeira</t>
+          <t>Receita Líquida de Vendas e/ou Serviços</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -9731,7 +9699,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Resultado Bruto Intermediação Financeira</t>
+          <t>Custo de Bens e/ou Serviços Vendidos</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -9751,97 +9719,91 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>-21769</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>12619</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>153660</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>-36166</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>-67969</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>-304831.008</v>
       </c>
       <c r="X60" t="n">
-        <v>0</v>
+        <v>-58723</v>
       </c>
       <c r="Y60" t="n">
-        <v>0</v>
+        <v>-100534.976</v>
       </c>
       <c r="Z60" t="n">
-        <v>0</v>
+        <v>-104097</v>
       </c>
       <c r="AA60" t="n">
-        <v>0</v>
+        <v>-31839</v>
       </c>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>-20980</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>-6040</v>
       </c>
       <c r="AD60" t="n">
-        <v>0</v>
+        <v>-2227</v>
       </c>
       <c r="AE60" t="n">
-        <v>0</v>
+        <v>-1117</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>-102</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AI60" t="n">
         <v>0</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AK60" t="inlineStr"/>
       <c r="AL60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM60" t="n">
         <v>0</v>
       </c>
       <c r="AN60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ60" t="n">
         <v>0</v>
       </c>
       <c r="AR60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>0</v>
-      </c>
+        <v>-3</v>
+      </c>
+      <c r="AS60" t="inlineStr"/>
       <c r="AT60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV60" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW60" t="inlineStr"/>
       <c r="AX60" t="n">
@@ -9854,7 +9816,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Outras Despesas/Receitas Operacionais</t>
+          <t>Resultado Bruto</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -9971,7 +9933,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Receitas de Prestação de Serviços</t>
+          <t>Despesas Com Vendas</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -10047,9 +10009,7 @@
       <c r="AJ62" t="n">
         <v>0</v>
       </c>
-      <c r="AK62" t="n">
-        <v>0</v>
-      </c>
+      <c r="AK62" t="inlineStr"/>
       <c r="AL62" t="n">
         <v>0</v>
       </c>
@@ -10059,9 +10019,7 @@
       <c r="AN62" t="n">
         <v>0</v>
       </c>
-      <c r="AO62" t="n">
-        <v>0</v>
-      </c>
+      <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="n">
         <v>0</v>
       </c>
@@ -10071,9 +10029,7 @@
       <c r="AR62" t="n">
         <v>0</v>
       </c>
-      <c r="AS62" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS62" t="inlineStr"/>
       <c r="AT62" t="n">
         <v>0</v>
       </c>
@@ -10094,7 +10050,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Despesas de Pessoal</t>
+          <t>Despesas Gerais e Administrativas</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -10170,9 +10126,7 @@
       <c r="AJ63" t="n">
         <v>0</v>
       </c>
-      <c r="AK63" t="n">
-        <v>0</v>
-      </c>
+      <c r="AK63" t="inlineStr"/>
       <c r="AL63" t="n">
         <v>0</v>
       </c>
@@ -10182,9 +10136,7 @@
       <c r="AN63" t="n">
         <v>0</v>
       </c>
-      <c r="AO63" t="n">
-        <v>0</v>
-      </c>
+      <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="n">
         <v>0</v>
       </c>
@@ -10194,9 +10146,7 @@
       <c r="AR63" t="n">
         <v>0</v>
       </c>
-      <c r="AS63" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS63" t="inlineStr"/>
       <c r="AT63" t="n">
         <v>0</v>
       </c>
@@ -10217,7 +10167,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Outras Despesas Administrativas</t>
+          <t xml:space="preserve">Perdas pela Não Recuperabilidade de Ativos </t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -10236,99 +10186,37 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="n">
-        <v>-183</v>
-      </c>
-      <c r="S64" t="n">
-        <v>-84</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>85</v>
-      </c>
-      <c r="V64" t="n">
-        <v>-105</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>-1717</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>-1658</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>-1328</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>-698</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>-181</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>220</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>104</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>-789</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>-957</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>-678</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>-797</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>-632</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>-600</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>-613</v>
-      </c>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AU64" t="inlineStr"/>
+      <c r="AV64" t="inlineStr"/>
       <c r="AW64" t="inlineStr"/>
       <c r="AX64" t="inlineStr"/>
       <c r="AY64" t="n">
@@ -10338,7 +10226,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Despesas Tributárias</t>
+          <t>Outras Receitas Operacionais</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -10357,99 +10245,37 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0</v>
-      </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>4678</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>560</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>3223</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>0</v>
-      </c>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
+      <c r="AO65" t="inlineStr"/>
+      <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr"/>
+      <c r="AS65" t="inlineStr"/>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AU65" t="inlineStr"/>
+      <c r="AV65" t="inlineStr"/>
       <c r="AW65" t="inlineStr"/>
       <c r="AX65" t="inlineStr"/>
       <c r="AY65" t="n">
@@ -10459,7 +10285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Outras Receitas Operacionais</t>
+          <t>Outras Despesas Operacionais</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -10478,99 +10304,37 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="n">
-        <v>-21586</v>
-      </c>
-      <c r="S66" t="n">
-        <v>12932</v>
-      </c>
-      <c r="T66" t="n">
-        <v>154199.008</v>
-      </c>
-      <c r="U66" t="n">
-        <v>-37019.008</v>
-      </c>
-      <c r="V66" t="n">
-        <v>-67864</v>
-      </c>
-      <c r="W66" t="n">
-        <v>-304831.008</v>
-      </c>
-      <c r="X66" t="n">
-        <v>-58723</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>-100533.992</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>-104097</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>-31839</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>-20980</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>-6040</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>-2227</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>-1117</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>-102</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>-30</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>1717</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>1663</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>-3350</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>698</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>181</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>-218</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>-661</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>789</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>957</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>675</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>-2421</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>632</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>601</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>612</v>
-      </c>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
+      <c r="AO66" t="inlineStr"/>
+      <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="inlineStr"/>
+      <c r="AS66" t="inlineStr"/>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AU66" t="inlineStr"/>
+      <c r="AV66" t="inlineStr"/>
       <c r="AW66" t="inlineStr"/>
       <c r="AX66" t="inlineStr"/>
       <c r="AY66" t="n">
@@ -10580,7 +10344,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Outras Despesas Operacionais</t>
+          <t>Resultado da Equivalência Patrimonial</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -10599,99 +10363,37 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="n">
-        <v>0</v>
-      </c>
-      <c r="S67" t="n">
-        <v>-229</v>
-      </c>
-      <c r="T67" t="n">
-        <v>-539</v>
-      </c>
-      <c r="U67" t="n">
-        <v>768</v>
-      </c>
-      <c r="V67" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>0</v>
-      </c>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr"/>
+      <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr"/>
+      <c r="AS67" t="inlineStr"/>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AU67" t="inlineStr"/>
+      <c r="AV67" t="inlineStr"/>
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="inlineStr"/>
       <c r="AY67" t="n">
@@ -10701,7 +10403,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Resultado da Equivalência Patrimonial</t>
+          <t>Financeiras</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -10721,61 +10423,61 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>-21769</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>12619</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>153660</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>-36166</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>-67969</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>-304831.008</v>
       </c>
       <c r="X68" t="n">
-        <v>0</v>
+        <v>-58723</v>
       </c>
       <c r="Y68" t="n">
-        <v>0</v>
+        <v>-100534.976</v>
       </c>
       <c r="Z68" t="n">
-        <v>0</v>
+        <v>-104097</v>
       </c>
       <c r="AA68" t="n">
-        <v>0</v>
+        <v>-31839</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>-20980</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>-6040</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>-2227</v>
       </c>
       <c r="AE68" t="n">
-        <v>0</v>
+        <v>-1117</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>-102</v>
       </c>
       <c r="AG68" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AI68" t="n">
         <v>0</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK68" t="n">
         <v>0</v>
@@ -10787,10 +10489,10 @@
         <v>0</v>
       </c>
       <c r="AN68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO68" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AP68" t="n">
         <v>6</v>
@@ -10799,19 +10501,19 @@
         <v>0</v>
       </c>
       <c r="AR68" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AS68" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
       </c>
       <c r="AU68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW68" t="n">
         <v>5995</v>
@@ -10826,7 +10528,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Resultado Operacional</t>
+          <t>Receitas Financeiras</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -10845,93 +10547,37 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="n">
-        <v>-21769</v>
-      </c>
-      <c r="S69" t="n">
-        <v>12619</v>
-      </c>
-      <c r="T69" t="n">
-        <v>153660</v>
-      </c>
-      <c r="U69" t="n">
-        <v>-36166</v>
-      </c>
-      <c r="V69" t="n">
-        <v>-67969</v>
-      </c>
-      <c r="W69" t="n">
-        <v>-304831.008</v>
-      </c>
-      <c r="X69" t="n">
-        <v>-58723</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>-100534.976</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>-104097</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>-31839</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>-20980</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>-6040</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>-2227</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>-1117</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>-102</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>-30</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>5</v>
-      </c>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
       <c r="AK69" t="inlineStr"/>
-      <c r="AL69" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>2</v>
-      </c>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
       <c r="AO69" t="inlineStr"/>
-      <c r="AP69" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>-3</v>
-      </c>
+      <c r="AP69" t="inlineStr"/>
+      <c r="AQ69" t="inlineStr"/>
+      <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr"/>
-      <c r="AT69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>-1</v>
-      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AU69" t="inlineStr"/>
+      <c r="AV69" t="inlineStr"/>
       <c r="AW69" t="inlineStr"/>
       <c r="AX69" t="inlineStr"/>
       <c r="AY69" t="n">
@@ -10941,7 +10587,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Resultado Não Operacional</t>
+          <t>Despesas Financeiras</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -10960,93 +10606,37 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="n">
-        <v>0</v>
-      </c>
-      <c r="S70" t="n">
-        <v>0</v>
-      </c>
-      <c r="T70" t="n">
-        <v>0</v>
-      </c>
-      <c r="U70" t="n">
-        <v>0</v>
-      </c>
-      <c r="V70" t="n">
-        <v>0</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>0</v>
-      </c>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="inlineStr"/>
       <c r="AK70" t="inlineStr"/>
-      <c r="AL70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
       <c r="AO70" t="inlineStr"/>
-      <c r="AP70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>0</v>
-      </c>
+      <c r="AP70" t="inlineStr"/>
+      <c r="AQ70" t="inlineStr"/>
+      <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr"/>
-      <c r="AT70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>0</v>
-      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AU70" t="inlineStr"/>
+      <c r="AV70" t="inlineStr"/>
       <c r="AW70" t="inlineStr"/>
       <c r="AX70" t="inlineStr"/>
       <c r="AY70" t="n">
@@ -11056,7 +10646,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Receitas</t>
+          <t>Resultado Não Operacional</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -11132,7 +10722,9 @@
       <c r="AJ71" t="n">
         <v>0</v>
       </c>
-      <c r="AK71" t="inlineStr"/>
+      <c r="AK71" t="n">
+        <v>0</v>
+      </c>
       <c r="AL71" t="n">
         <v>0</v>
       </c>
@@ -11142,7 +10734,9 @@
       <c r="AN71" t="n">
         <v>0</v>
       </c>
-      <c r="AO71" t="inlineStr"/>
+      <c r="AO71" t="n">
+        <v>0</v>
+      </c>
       <c r="AP71" t="n">
         <v>0</v>
       </c>
@@ -11152,7 +10746,9 @@
       <c r="AR71" t="n">
         <v>0</v>
       </c>
-      <c r="AS71" t="inlineStr"/>
+      <c r="AS71" t="n">
+        <v>0</v>
+      </c>
       <c r="AT71" t="n">
         <v>0</v>
       </c>
@@ -11173,7 +10769,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Despesas</t>
+          <t>Receitas</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -11192,93 +10788,37 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0</v>
-      </c>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
       <c r="AK72" t="inlineStr"/>
-      <c r="AL72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>0</v>
-      </c>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
       <c r="AO72" t="inlineStr"/>
-      <c r="AP72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>0</v>
-      </c>
+      <c r="AP72" t="inlineStr"/>
+      <c r="AQ72" t="inlineStr"/>
+      <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
-      <c r="AT72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>0</v>
-      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AU72" t="inlineStr"/>
+      <c r="AV72" t="inlineStr"/>
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr"/>
       <c r="AY72" t="inlineStr"/>
@@ -11286,7 +10826,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Resultado Antes Tributação/Participações</t>
+          <t>Despesas</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -11305,99 +10845,37 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="n">
-        <v>-21769</v>
-      </c>
-      <c r="S73" t="n">
-        <v>12619</v>
-      </c>
-      <c r="T73" t="n">
-        <v>153660</v>
-      </c>
-      <c r="U73" t="n">
-        <v>-36166</v>
-      </c>
-      <c r="V73" t="n">
-        <v>-67969</v>
-      </c>
-      <c r="W73" t="n">
-        <v>-304831.008</v>
-      </c>
-      <c r="X73" t="n">
-        <v>-58723</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>-100534.976</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>-104097</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>-31839</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>-20980</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>-6040</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>-2227</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>-1117</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>-102</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>-30</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR73" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>-1</v>
-      </c>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
+      <c r="AO73" t="inlineStr"/>
+      <c r="AP73" t="inlineStr"/>
+      <c r="AQ73" t="inlineStr"/>
+      <c r="AR73" t="inlineStr"/>
+      <c r="AS73" t="inlineStr"/>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AU73" t="inlineStr"/>
+      <c r="AV73" t="inlineStr"/>
       <c r="AW73" t="inlineStr"/>
       <c r="AX73" t="inlineStr"/>
       <c r="AY73" t="inlineStr"/>
@@ -11405,7 +10883,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Provisão para IR e Contribuição Social</t>
+          <t>Resultado Antes Tributação/Participações</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -11481,9 +10959,7 @@
       <c r="AJ74" t="n">
         <v>0</v>
       </c>
-      <c r="AK74" t="n">
-        <v>0</v>
-      </c>
+      <c r="AK74" t="inlineStr"/>
       <c r="AL74" t="n">
         <v>0</v>
       </c>
@@ -11493,9 +10969,7 @@
       <c r="AN74" t="n">
         <v>0</v>
       </c>
-      <c r="AO74" t="n">
-        <v>0</v>
-      </c>
+      <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="n">
         <v>0</v>
       </c>
@@ -11505,9 +10979,7 @@
       <c r="AR74" t="n">
         <v>0</v>
       </c>
-      <c r="AS74" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS74" t="inlineStr"/>
       <c r="AT74" t="n">
         <v>0</v>
       </c>
@@ -11528,7 +11000,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IR Diferido</t>
+          <t>Provisão para IR e Contribuição Social</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -11604,7 +11076,9 @@
       <c r="AJ75" t="n">
         <v>0</v>
       </c>
-      <c r="AK75" t="inlineStr"/>
+      <c r="AK75" t="n">
+        <v>0</v>
+      </c>
       <c r="AL75" t="n">
         <v>0</v>
       </c>
@@ -11614,7 +11088,9 @@
       <c r="AN75" t="n">
         <v>0</v>
       </c>
-      <c r="AO75" t="inlineStr"/>
+      <c r="AO75" t="n">
+        <v>0</v>
+      </c>
       <c r="AP75" t="n">
         <v>0</v>
       </c>
@@ -11624,7 +11100,9 @@
       <c r="AR75" t="n">
         <v>0</v>
       </c>
-      <c r="AS75" t="inlineStr"/>
+      <c r="AS75" t="n">
+        <v>0</v>
+      </c>
       <c r="AT75" t="n">
         <v>0</v>
       </c>
@@ -11647,7 +11125,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Participações/Contribuições Estatutárias</t>
+          <t>IR Diferido</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -11723,9 +11201,7 @@
       <c r="AJ76" t="n">
         <v>0</v>
       </c>
-      <c r="AK76" t="n">
-        <v>0</v>
-      </c>
+      <c r="AK76" t="inlineStr"/>
       <c r="AL76" t="n">
         <v>0</v>
       </c>
@@ -11735,9 +11211,7 @@
       <c r="AN76" t="n">
         <v>0</v>
       </c>
-      <c r="AO76" t="n">
-        <v>0</v>
-      </c>
+      <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="n">
         <v>0</v>
       </c>
@@ -11747,9 +11221,7 @@
       <c r="AR76" t="n">
         <v>0</v>
       </c>
-      <c r="AS76" t="n">
-        <v>0</v>
-      </c>
+      <c r="AS76" t="inlineStr"/>
       <c r="AT76" t="n">
         <v>0</v>
       </c>
@@ -11770,7 +11242,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Reversão dos Juros sobre Capital Próprio</t>
+          <t>Participações/Contribuições Estatutárias</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -11790,91 +11262,97 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>-21769</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>12619</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>153660</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>-36166</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>-67969</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>-304831.008</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>-58723</v>
       </c>
       <c r="Y77" t="n">
-        <v>0</v>
+        <v>-100534.976</v>
       </c>
       <c r="Z77" t="n">
-        <v>0</v>
+        <v>-104097</v>
       </c>
       <c r="AA77" t="n">
-        <v>0</v>
+        <v>-31839</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>-20980</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>-6040</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>-2227</v>
       </c>
       <c r="AE77" t="n">
-        <v>0</v>
+        <v>-1117</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>-102</v>
       </c>
       <c r="AG77" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AH77" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AI77" t="n">
         <v>0</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK77" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>0</v>
+      </c>
       <c r="AL77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM77" t="n">
         <v>0</v>
       </c>
       <c r="AN77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO77" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1</v>
+      </c>
       <c r="AP77" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ77" t="n">
         <v>0</v>
       </c>
       <c r="AR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS77" t="inlineStr"/>
+        <v>-3</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>-1</v>
+      </c>
       <c r="AT77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV77" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW77" t="n">
         <v>5995</v>
@@ -11887,7 +11365,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Part. de Acionistas Não Controladores</t>
+          <t>Reversão dos Juros sobre Capital Próprio</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -11944,7 +11422,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lucro/Prejuízo do Período</t>
+          <t>Part. de Acionistas Não Controladores</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -11963,102 +11441,99 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="n">
-        <v>-21769</v>
-      </c>
-      <c r="S79" t="n">
-        <v>12619</v>
-      </c>
-      <c r="T79" t="n">
-        <v>153660</v>
-      </c>
-      <c r="U79" t="n">
-        <v>-36166</v>
-      </c>
-      <c r="V79" t="n">
-        <v>-67969</v>
-      </c>
-      <c r="W79" t="n">
-        <v>-304831.008</v>
-      </c>
-      <c r="X79" t="n">
-        <v>-58723</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>-100534.976</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>-104097</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>-31839</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>-20980</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>-6040</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>-2227</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>-1117</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>-102</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>-30</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>-1</v>
-      </c>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
+      <c r="AO79" t="inlineStr"/>
+      <c r="AP79" t="inlineStr"/>
+      <c r="AQ79" t="inlineStr"/>
+      <c r="AR79" t="inlineStr"/>
+      <c r="AS79" t="inlineStr"/>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AU79" t="inlineStr"/>
+      <c r="AV79" t="inlineStr"/>
       <c r="AW79" t="inlineStr"/>
       <c r="AX79" t="inlineStr"/>
       <c r="AY79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Lucro/Prejuízo do Período</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
+      <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
+      <c r="AO80" t="inlineStr"/>
+      <c r="AP80" t="inlineStr"/>
+      <c r="AQ80" t="inlineStr"/>
+      <c r="AR80" t="inlineStr"/>
+      <c r="AS80" t="inlineStr"/>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AU80" t="inlineStr"/>
+      <c r="AV80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr"/>
+      <c r="AX80" t="inlineStr"/>
+      <c r="AY80" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
